--- a/Шаблон1.xlsx
+++ b/Шаблон1.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudio\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudio\source\Specification_Ver2\Specification_Ver2\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5289383-C43C-4851-8D19-1D85343DC682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B867C4BD-3662-44E9-A22D-10700067DCE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A30BECC-C412-4A36-B087-6767A887FB2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$1:$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -526,24 +529,38 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -573,20 +590,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
       </border>
     </dxf>
   </dxfs>
@@ -603,25 +606,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9FF54E24-D2C3-42D1-A6A3-9DF2B6A3D040}" name="Таблица2" displayName="Таблица2" ref="A1:P2" totalsRowShown="0" headerRowDxfId="17" dataDxfId="0" headerRowBorderDxfId="18" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9FF54E24-D2C3-42D1-A6A3-9DF2B6A3D040}" name="Таблица2" displayName="Таблица2" ref="A1:P2" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
   <autoFilter ref="A1:P2" xr:uid="{E3DEB0F1-9231-4D3C-9072-800911838C12}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{B5B0BF99-AD60-4D86-9CFB-1FDAF9F9F963}" name="Опорная ПС" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{8D88131C-C9D1-42DE-A01B-3F1B29707463}" name="Номер фидера 6(10) кВ" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{52D3EAFE-C95D-45CC-A36E-FBC4BD9EAA80}" name="Номер ТП 6(10)/0,4 кВ" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{C52517CC-5DAC-478B-A76D-F4031082F3A8}" name="Тип ТП" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{9A3317C1-6133-472C-9329-B3D4677AE96C}" name="Кол-во силовых трансформаторов" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{D42A9BAC-AD6F-4A59-9DFF-31FDC3734ED3}" name="Мощность кВА" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{38362C6A-6C48-4B9F-B672-A6120EC7D467}" name="Кол-во отходящих фидеров 0,4" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{AD831F1B-A3F5-4ED4-BF35-F1AD50C9E7E0}" name="Тип и уставка автоматического выключателя или ток плавкой вставки предохранителя, в А" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{AAD18CC2-2468-476C-96A0-2CB6B3010778}" name="Населенный пункт" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{AB95FB63-8443-47F9-A781-B8598F80720E}" name="Улица" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{E0B969D3-79A5-4FAE-BE76-FEDA9321E413}" name="Дом" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{C3C9B5F3-C590-4B9C-8E10-E5E5039BEDF3}" name="Балансовая принадлежность" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{794C3D30-D3C3-4FE7-B751-3AEC3B77B948}" name="Широта" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{BC066209-1440-4C7D-B05C-EC88203160EA}" name="Долгота" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{A0EE0DB4-3FFB-44BA-B551-5603F232362A}" name="Тип ТТ" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{1A5B5EDA-F0EA-4C1C-A8CB-74784364660C}" name="Тип УСПД" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{B5B0BF99-AD60-4D86-9CFB-1FDAF9F9F963}" name="Опорная ПС" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{8D88131C-C9D1-42DE-A01B-3F1B29707463}" name="Номер фидера 6(10) кВ" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{52D3EAFE-C95D-45CC-A36E-FBC4BD9EAA80}" name="Номер ТП 6(10)/0,4 кВ" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{C52517CC-5DAC-478B-A76D-F4031082F3A8}" name="Тип ТП" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{9A3317C1-6133-472C-9329-B3D4677AE96C}" name="Кол-во силовых трансформаторов" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{D42A9BAC-AD6F-4A59-9DFF-31FDC3734ED3}" name="Мощность кВА" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{38362C6A-6C48-4B9F-B672-A6120EC7D467}" name="Кол-во отходящих фидеров 0,4" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{AD831F1B-A3F5-4ED4-BF35-F1AD50C9E7E0}" name="Тип и уставка автоматического выключателя или ток плавкой вставки предохранителя, в А" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{AAD18CC2-2468-476C-96A0-2CB6B3010778}" name="Населенный пункт" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{AB95FB63-8443-47F9-A781-B8598F80720E}" name="Улица" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{E0B969D3-79A5-4FAE-BE76-FEDA9321E413}" name="Дом" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{C3C9B5F3-C590-4B9C-8E10-E5E5039BEDF3}" name="Балансовая принадлежность" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{794C3D30-D3C3-4FE7-B751-3AEC3B77B948}" name="Широта" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{BC066209-1440-4C7D-B05C-EC88203160EA}" name="Долгота" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{A0EE0DB4-3FFB-44BA-B551-5603F232362A}" name="Тип ТТ" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{1A5B5EDA-F0EA-4C1C-A8CB-74784364660C}" name="Тип УСПД" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -930,7 +933,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,7 +956,7 @@
     <col min="16" max="16" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="133.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
